--- a/Stock Company List.xlsx
+++ b/Stock Company List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaypr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaypr\Desktop\Tech Stack\VSCodes\Web Scrapping\StockScrapping\Scrapping Screener Website Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C29C35-64AA-4CA1-8354-4955E5BCBDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86146A61-5702-436F-8C39-7A22F32BA1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,168 +447,168 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1" xr:uid="{E9BE2C89-4CDD-4C0B-8798-4458C890AC5E}"/>
-    <hyperlink ref="A26" r:id="rId2" xr:uid="{1984FBDC-D869-4CBB-A99B-4879163D6652}"/>
-    <hyperlink ref="A25" r:id="rId3" xr:uid="{B0B7A7EE-4415-4FD9-817B-6D12E3163100}"/>
-    <hyperlink ref="A24" r:id="rId4" xr:uid="{F7D9A432-F735-4B87-8F28-D0F86550F5D5}"/>
-    <hyperlink ref="A23" r:id="rId5" xr:uid="{A574A690-658C-451A-8E69-AD04FED8F3DB}"/>
-    <hyperlink ref="A22" r:id="rId6" xr:uid="{22F58ABF-A8EB-4F2D-B20E-E6B65CE5B137}"/>
-    <hyperlink ref="A21" r:id="rId7" xr:uid="{4ED27EC1-D42A-47FC-A96A-3F9A5EF44FEA}"/>
-    <hyperlink ref="A20" r:id="rId8" xr:uid="{B5B49A23-F7A2-43BE-82D2-A67981885F4A}"/>
-    <hyperlink ref="A19" r:id="rId9" xr:uid="{9CCAE80F-5876-462E-A2ED-E23CF8B87227}"/>
-    <hyperlink ref="A18" r:id="rId10" xr:uid="{2A3217C9-61CD-4616-97CE-87626FB36B05}"/>
-    <hyperlink ref="A17" r:id="rId11" xr:uid="{4683DBE7-5223-4424-8AF1-0A0E7ABEF078}"/>
-    <hyperlink ref="A16" r:id="rId12" xr:uid="{C45D98BB-7C88-484C-B6CD-9EDB901731EB}"/>
-    <hyperlink ref="A15" r:id="rId13" xr:uid="{9C56D37B-A059-4624-84C2-D47BA517F701}"/>
-    <hyperlink ref="A14" r:id="rId14" xr:uid="{C983E682-3FE6-480D-9470-74B5647D5E07}"/>
-    <hyperlink ref="A13" r:id="rId15" xr:uid="{24FF41E6-9450-4707-80AB-3496FD6C877F}"/>
-    <hyperlink ref="A12" r:id="rId16" xr:uid="{EDDBBA06-BDCD-4DB5-A25B-0DBB5E58BBA3}"/>
-    <hyperlink ref="A11" r:id="rId17" xr:uid="{3D5FCF37-D75E-4402-B79A-C55DAD254C38}"/>
-    <hyperlink ref="A10" r:id="rId18" xr:uid="{6889324A-8950-412E-BE51-CFB34B6BA5FF}"/>
-    <hyperlink ref="A9" r:id="rId19" xr:uid="{C7BE25AA-6762-4DB5-A3FD-BA997DBF7C92}"/>
-    <hyperlink ref="A8" r:id="rId20" location="quarters" xr:uid="{0FE3869B-49D0-410E-A5AC-71CFF3195DA5}"/>
-    <hyperlink ref="A7" r:id="rId21" xr:uid="{9FAB9C6A-4A86-4FA8-A201-13159D9C5DB0}"/>
-    <hyperlink ref="A6" r:id="rId22" xr:uid="{2131231B-B5C0-4681-8B8A-E7CE882EEBBE}"/>
-    <hyperlink ref="A5" r:id="rId23" location="quarters" xr:uid="{C307E6CE-83C7-4591-9271-680A5909931E}"/>
-    <hyperlink ref="A4" r:id="rId24" xr:uid="{8A4EE75B-9DEC-43B1-B41D-586D7833C39C}"/>
-    <hyperlink ref="A3" r:id="rId25" xr:uid="{BA101788-E6C1-425A-A540-F42F4687C3D6}"/>
-    <hyperlink ref="A2" r:id="rId26" xr:uid="{E3D2512D-AFE7-49F6-A4D4-486F792A0CC6}"/>
-    <hyperlink ref="A1" r:id="rId27" xr:uid="{9D66BC84-4FC0-4003-9A20-DE0F0AD2F6FB}"/>
+    <hyperlink ref="A26" r:id="rId1" xr:uid="{E9BE2C89-4CDD-4C0B-8798-4458C890AC5E}"/>
+    <hyperlink ref="A25" r:id="rId2" xr:uid="{1984FBDC-D869-4CBB-A99B-4879163D6652}"/>
+    <hyperlink ref="A24" r:id="rId3" xr:uid="{B0B7A7EE-4415-4FD9-817B-6D12E3163100}"/>
+    <hyperlink ref="A23" r:id="rId4" xr:uid="{F7D9A432-F735-4B87-8F28-D0F86550F5D5}"/>
+    <hyperlink ref="A22" r:id="rId5" xr:uid="{A574A690-658C-451A-8E69-AD04FED8F3DB}"/>
+    <hyperlink ref="A21" r:id="rId6" xr:uid="{22F58ABF-A8EB-4F2D-B20E-E6B65CE5B137}"/>
+    <hyperlink ref="A20" r:id="rId7" xr:uid="{4ED27EC1-D42A-47FC-A96A-3F9A5EF44FEA}"/>
+    <hyperlink ref="A19" r:id="rId8" xr:uid="{B5B49A23-F7A2-43BE-82D2-A67981885F4A}"/>
+    <hyperlink ref="A18" r:id="rId9" xr:uid="{9CCAE80F-5876-462E-A2ED-E23CF8B87227}"/>
+    <hyperlink ref="A17" r:id="rId10" xr:uid="{2A3217C9-61CD-4616-97CE-87626FB36B05}"/>
+    <hyperlink ref="A16" r:id="rId11" xr:uid="{4683DBE7-5223-4424-8AF1-0A0E7ABEF078}"/>
+    <hyperlink ref="A15" r:id="rId12" xr:uid="{C45D98BB-7C88-484C-B6CD-9EDB901731EB}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{9C56D37B-A059-4624-84C2-D47BA517F701}"/>
+    <hyperlink ref="A13" r:id="rId14" xr:uid="{C983E682-3FE6-480D-9470-74B5647D5E07}"/>
+    <hyperlink ref="A12" r:id="rId15" xr:uid="{24FF41E6-9450-4707-80AB-3496FD6C877F}"/>
+    <hyperlink ref="A11" r:id="rId16" xr:uid="{EDDBBA06-BDCD-4DB5-A25B-0DBB5E58BBA3}"/>
+    <hyperlink ref="A10" r:id="rId17" xr:uid="{3D5FCF37-D75E-4402-B79A-C55DAD254C38}"/>
+    <hyperlink ref="A9" r:id="rId18" xr:uid="{6889324A-8950-412E-BE51-CFB34B6BA5FF}"/>
+    <hyperlink ref="A8" r:id="rId19" xr:uid="{C7BE25AA-6762-4DB5-A3FD-BA997DBF7C92}"/>
+    <hyperlink ref="A7" r:id="rId20" location="quarters" xr:uid="{0FE3869B-49D0-410E-A5AC-71CFF3195DA5}"/>
+    <hyperlink ref="A6" r:id="rId21" xr:uid="{9FAB9C6A-4A86-4FA8-A201-13159D9C5DB0}"/>
+    <hyperlink ref="A5" r:id="rId22" xr:uid="{2131231B-B5C0-4681-8B8A-E7CE882EEBBE}"/>
+    <hyperlink ref="A4" r:id="rId23" location="quarters" xr:uid="{C307E6CE-83C7-4591-9271-680A5909931E}"/>
+    <hyperlink ref="A3" r:id="rId24" xr:uid="{8A4EE75B-9DEC-43B1-B41D-586D7833C39C}"/>
+    <hyperlink ref="A2" r:id="rId25" xr:uid="{BA101788-E6C1-425A-A540-F42F4687C3D6}"/>
+    <hyperlink ref="A1" r:id="rId26" xr:uid="{E3D2512D-AFE7-49F6-A4D4-486F792A0CC6}"/>
+    <hyperlink ref="A27" r:id="rId27" xr:uid="{9D66BC84-4FC0-4003-9A20-DE0F0AD2F6FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
